--- a/Planning/Forrest North.xlsx
+++ b/Planning/Forrest North.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BIT5\1\The Class of writing\New folder\Prof-Practice-Text-Adventure-electric-Boogalo\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BIT5\1\The Class of writing\New folder\Prof-Practice-Text-Adventure-electric-Boogalo\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -577,7 +577,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
